--- a/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombretta.bonino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977FC90E-0BF2-47FB-B3B9-E50C8499D487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E46BF45-758B-44CB-BB5E-4DDB10F8939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="480">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2322,7 +2322,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2479,31 +2479,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3957,10 +3932,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>4</v>
       </c>
@@ -4275,7 +4250,9 @@
       <c r="I10" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5252,56 +5229,56 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="70" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62">
+    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35">
         <v>53</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="63" t="s">
+      <c r="B35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="67" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="K35" s="67" t="s">
+      <c r="K35" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67" t="s">
+      <c r="L35" s="38"/>
+      <c r="M35" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="N35" s="67" t="s">
+      <c r="N35" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67" t="s">
+      <c r="O35" s="38"/>
+      <c r="P35" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="Q35" s="67" t="s">
+      <c r="Q35" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="R35" s="67" t="s">
+      <c r="R35" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="S35" s="67" t="s">
+      <c r="S35" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="T35" s="67"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="67" t="s">
+      <c r="T35" s="38"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9649,7 +9626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="35">
         <v>191</v>
       </c>
@@ -9677,7 +9654,9 @@
       <c r="I149" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="J149" s="38"/>
+      <c r="J149" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K149" s="38"/>
       <c r="L149" s="38"/>
       <c r="M149" s="38"/>
@@ -9694,7 +9673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="35">
         <v>376</v>
       </c>
@@ -9722,7 +9701,9 @@
       <c r="I150" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="J150" s="38"/>
+      <c r="J150" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K150" s="38"/>
       <c r="L150" s="38"/>
       <c r="M150" s="38"/>
@@ -10553,7 +10534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="35">
         <v>452</v>
       </c>
@@ -10581,7 +10562,9 @@
       <c r="I173" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="J173" s="38"/>
+      <c r="J173" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K173" s="38"/>
       <c r="L173" s="38"/>
       <c r="M173" s="38"/>
@@ -15403,11 +15386,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="LAB"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17706,15 +17684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17972,6 +17941,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -17985,14 +17963,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18007,6 +17977,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\accreditamento-sogei\CASE_TEST_Invio-2025-05-15\A1#111#AFFIDEAXX\AffideaHCIS\V.12.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianluca.ghisolfi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540ED26F-EECD-4BC1-9746-4A025BEAA683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF4AB76-CCEF-4079-9149-340190CC05FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5385" yWindow="-21600" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="690" windowWidth="17670" windowHeight="13350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="480">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1800,10 +1800,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.4d92836c2e1e75ec3163599a6b923d67ca82d9deac176ead9f25ac309cca9896.ee41611905^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Attualmente il LIS non invia direttamente il referto verso FSE perchè inviato da un altro software che si occupa della pubblicazione su FSE. 
-L'esito viene memorizzato su base dati per analisi, monitoraggio e successive verifiche; in caso, è possibile ripetere il processo di creazione e validazione.</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.01f2c93582594f6bc267c95b020c9c3e84bd2549c46f7e03e3db78587a86f963.1622362461^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1838,6 +1834,13 @@
   </si>
   <si>
     <t>17:55:40.775</t>
+  </si>
+  <si>
+    <t>Finchè il referto non è validato (sono funzioni opzionali, che possono essere disabilitate) non è possbile firmarlo digitalmente e rimane pendente finche non saranno risolte le anomalie. Il firmatario vede il referto non firmato con l'indicazione dell'anomalia.
+Firmato digitalmente il referto è inserito nel repository per la pubblicazione.
+Attualmente AffideaHCIS non pubblica direttamente il referto verso FSE. 
+AffdieaHCIS è integrato con un altro software validato  che si occupa della integrazioni regionali e pubblicazioni su FSE. 
+L'esito è memorizzato su base dati per le analisi, monitoraggio e verifiche. In caso, di anomalie è possibile ripetere il processo di creazione e validazione.</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3966,10 +3969,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G194" sqref="G194"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4256,7 +4259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="57" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="57" customFormat="1" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58">
         <v>4</v>
       </c>
@@ -4276,13 +4279,13 @@
         <v>45792</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>64</v>
@@ -4303,7 +4306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>28</v>
       </c>
@@ -4337,14 +4340,14 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O11" s="36"/>
       <c r="P11" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="36" t="s">
         <v>232</v>
@@ -4353,7 +4356,7 @@
         <v>232</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T11" s="36"/>
       <c r="U11" s="37"/>
@@ -4621,7 +4624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>36</v>
       </c>
@@ -4655,14 +4658,14 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N19" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O19" s="36"/>
       <c r="P19" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="36" t="s">
         <v>232</v>
@@ -4671,7 +4674,7 @@
         <v>232</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T19" s="36"/>
       <c r="U19" s="37"/>
@@ -4939,7 +4942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>44</v>
       </c>
@@ -4965,14 +4968,14 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O27" s="36"/>
       <c r="P27" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="36" t="s">
         <v>232</v>
@@ -4981,7 +4984,7 @@
         <v>232</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T27" s="36"/>
       <c r="U27" s="37"/>
@@ -5263,7 +5266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>53</v>
       </c>
@@ -5290,25 +5293,13 @@
         <v>242</v>
       </c>
       <c r="L35" s="36"/>
-      <c r="M35" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N35" s="36" t="s">
-        <v>232</v>
-      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="R35" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="S35" s="36" t="s">
-        <v>467</v>
-      </c>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="37"/>
       <c r="V35" s="38"/>
@@ -5316,7 +5307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33">
         <v>55</v>
       </c>
@@ -5350,14 +5341,14 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O36" s="36"/>
       <c r="P36" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="36" t="s">
         <v>232</v>
@@ -5366,7 +5357,7 @@
         <v>232</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T36" s="36"/>
       <c r="U36" s="37"/>
@@ -5375,7 +5366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>56</v>
       </c>
@@ -5409,14 +5400,14 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N37" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O37" s="36"/>
       <c r="P37" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="36" t="s">
         <v>232</v>
@@ -5425,7 +5416,7 @@
         <v>232</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T37" s="36"/>
       <c r="U37" s="37"/>
@@ -5434,7 +5425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33">
         <v>57</v>
       </c>
@@ -5468,14 +5459,14 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N38" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O38" s="36"/>
       <c r="P38" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q38" s="36" t="s">
         <v>232</v>
@@ -5484,7 +5475,7 @@
         <v>232</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T38" s="36"/>
       <c r="U38" s="37"/>
@@ -5493,7 +5484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>58</v>
       </c>
@@ -5520,25 +5511,13 @@
         <v>241</v>
       </c>
       <c r="L39" s="36"/>
-      <c r="M39" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N39" s="36" t="s">
-        <v>232</v>
-      </c>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
       <c r="O39" s="36"/>
-      <c r="P39" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q39" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="R39" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>467</v>
-      </c>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="37"/>
       <c r="V39" s="38"/>
@@ -5546,7 +5525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33">
         <v>59</v>
       </c>
@@ -5580,14 +5559,14 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N40" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O40" s="36"/>
       <c r="P40" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="36" t="s">
         <v>232</v>
@@ -5596,7 +5575,7 @@
         <v>232</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T40" s="36"/>
       <c r="U40" s="37"/>
@@ -5605,7 +5584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33">
         <v>60</v>
       </c>
@@ -5631,25 +5610,13 @@
         <v>241</v>
       </c>
       <c r="L41" s="36"/>
-      <c r="M41" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>232</v>
-      </c>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
       <c r="O41" s="36"/>
-      <c r="P41" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q41" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="R41" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="S41" s="36" t="s">
-        <v>467</v>
-      </c>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="37"/>
       <c r="V41" s="38"/>
@@ -5657,7 +5624,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33">
         <v>61</v>
       </c>
@@ -5691,14 +5658,14 @@
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N42" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O42" s="36"/>
       <c r="P42" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="36" t="s">
         <v>232</v>
@@ -5707,7 +5674,7 @@
         <v>232</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T42" s="36"/>
       <c r="U42" s="37"/>
@@ -5716,7 +5683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="11.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>62</v>
       </c>
@@ -5750,14 +5717,14 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O43" s="36"/>
       <c r="P43" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="36" t="s">
         <v>232</v>
@@ -5766,7 +5733,7 @@
         <v>232</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T43" s="36"/>
       <c r="U43" s="37"/>
@@ -9660,7 +9627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33">
         <v>191</v>
       </c>
@@ -9680,13 +9647,13 @@
         <v>45792</v>
       </c>
       <c r="G149" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H149" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I149" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J149" s="36" t="s">
         <v>64</v>
@@ -9707,7 +9674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="33">
         <v>376</v>
       </c>
@@ -9727,13 +9694,13 @@
         <v>45792</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I150" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J150" s="36" t="s">
         <v>64</v>
@@ -10568,7 +10535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:23" s="57" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" s="57" customFormat="1" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="48">
         <v>452</v>
       </c>
@@ -10588,13 +10555,13 @@
         <v>45792</v>
       </c>
       <c r="G173" s="52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H173" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="I173" s="53" t="s">
         <v>470</v>
-      </c>
-      <c r="I173" s="53" t="s">
-        <v>471</v>
       </c>
       <c r="J173" s="54" t="s">
         <v>64</v>
@@ -11059,7 +11026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="33">
         <v>466</v>
       </c>
@@ -11093,14 +11060,14 @@
       <c r="K186" s="36"/>
       <c r="L186" s="33"/>
       <c r="M186" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="N186" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="O186" s="33"/>
       <c r="P186" s="36" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="Q186" s="36" t="s">
         <v>232</v>
@@ -11109,7 +11076,7 @@
         <v>232</v>
       </c>
       <c r="S186" s="36" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="T186" s="36"/>
       <c r="U186" s="33"/>
@@ -15424,7 +15391,7 @@
     </filterColumn>
     <filterColumn colId="22">
       <filters>
-        <filter val="OK"/>
+        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17723,27 +17690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18001,32 +17947,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18043,4 +17985,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>